--- a/data/542/BOKFS/old/Credit to Households.xlsx
+++ b/data/542/BOKFS/old/Credit to Households.xlsx
@@ -662,7 +662,7 @@
     <col min="245" max="245" width="15.0" customWidth="true"/>
     <col min="246" max="246" width="15.0" customWidth="true"/>
     <col min="247" max="247" width="15.0" customWidth="true"/>
-    <col min="248" max="248" width="4.0" customWidth="true"/>
+    <col min="248" max="248" width="15.0" customWidth="true"/>
     <col min="249" max="249" width="4.0" customWidth="true"/>
   </cols>
   <sheetData>
@@ -2997,12 +2997,10 @@
         <v>1764643.3</v>
       </c>
       <c r="IM2" s="3" t="n">
-        <v>1805866.7</v>
-      </c>
-      <c r="IN2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>1808152.9</v>
+      </c>
+      <c r="IN2" s="3" t="n">
+        <v>1844893.3</v>
       </c>
       <c r="IO2" s="1" t="inlineStr">
         <is>
